--- a/Schematic_designs/partlist_buy.xlsx
+++ b/Schematic_designs/partlist_buy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Move\Documentumok\eagle\Serial_PWM_Driver_with_OLED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Move\Documentumok\Arduino\Serial_PWM_Driver_with_OLED\Schematic_designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Part</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>1-side</t>
+  </si>
+  <si>
+    <t>9,0 * 8,5 cm</t>
+  </si>
+  <si>
+    <t>Drill</t>
+  </si>
+  <si>
+    <t>0,8 mm</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1,2 mm</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -215,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -228,6 +252,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -508,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,6 +815,56 @@
       </c>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Schematic_designs/partlist_buy.xlsx
+++ b/Schematic_designs/partlist_buy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Part</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,6 +257,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +544,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +587,7 @@
       <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -599,7 +605,9 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -617,7 +625,9 @@
       <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -635,7 +645,7 @@
       <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -653,7 +663,7 @@
       <c r="E6" s="3">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -671,7 +681,7 @@
       <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -689,7 +699,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -707,7 +717,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -725,7 +735,9 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -743,7 +755,9 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -761,7 +775,9 @@
       <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -779,7 +795,9 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -797,7 +815,9 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -813,7 +833,9 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -831,7 +853,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -847,7 +869,7 @@
       <c r="E17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -863,7 +885,7 @@
       <c r="E18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
